--- a/HurricaneData.xlsx
+++ b/HurricaneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowle\source\repos\HurricaneStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3572BC7F-3DA6-4BA3-888D-FBB0E5CBC62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5358C24B-1C1F-4D4B-9860-F4E4CA4348B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A33FF37E-FF3D-4101-9A07-9A794714E0A3}"/>
   </bookViews>
